--- a/data/trans_dic/P0902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,56; 8,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,33</t>
+          <t>0,63; 3,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,72</t>
+          <t>4,5; 10,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,53</t>
+          <t>2,61; 7,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,12</t>
+          <t>3,98; 7,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,71</t>
+          <t>4,86; 9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,7</t>
+          <t>8,23; 12,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,5</t>
+          <t>7,04; 10,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>11,65%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,01</t>
+          <t>3,99; 13,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,08</t>
+          <t>11,6; 17,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 15,72</t>
+          <t>6,9; 14,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,75%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 22,32</t>
+          <t>16,1; 22,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,14</t>
+          <t>19,85; 24,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,49; 23,04</t>
+          <t>18,51; 22,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,77</t>
+          <t>12,36; 20,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 37,21</t>
+          <t>18,8; 29,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,33; 27,42</t>
+          <t>12,83; 20,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 26,22</t>
+          <t>14,02; 20,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,68; 39,81</t>
+          <t>25,19; 34,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,47; 52,52</t>
+          <t>31,89; 42,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,2; 47,15</t>
+          <t>27,39; 37,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,96; 43,03</t>
+          <t>6,58; 29,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,2; 33,45</t>
+          <t>20,53; 26,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,15; 44,61</t>
+          <t>27,25; 34,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,36; 37,7</t>
+          <t>21,79; 28,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,56; 34,73</t>
+          <t>8,85; 23,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>53,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>45,65%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>28,18; 40,35</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38,0; 50,84</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 39,04</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27,72; 37,27</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 48,02</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>54,69; 65,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 59,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>51,15; 57,89</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35,46; 43,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49,45; 58,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41,71; 50,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42,94; 48,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15,57%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,31; 9,16</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>9,89; 12,18</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>8,32; 10,32</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>11,71; 14,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 13,29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>13,43; 15,85</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>18,55; 21,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,32; 19,18</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,36; 20,57</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 19,84</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>10,71; 12,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>14,69; 16,43</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>12,64; 14,46</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>15,14; 17,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,08; 16,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P0902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,91</t>
+          <t>1,22; 3,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,54</t>
+          <t>1,46; 4,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,85</t>
+          <t>0,71; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,08</t>
+          <t>2,72; 6,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,69</t>
+          <t>2,7; 7,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,17</t>
+          <t>1,67; 5,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,42</t>
+          <t>1,61; 9,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,55</t>
+          <t>2,31; 4,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,99</t>
+          <t>2,47; 5,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,63</t>
+          <t>1,53; 3,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,67</t>
+          <t>0,67; 3,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,93</t>
+          <t>1,66; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,85</t>
+          <t>2,0; 4,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,4</t>
+          <t>2,22; 5,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,61</t>
+          <t>4,65; 11,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,25</t>
+          <t>4,88; 9,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,93</t>
+          <t>3,35; 6,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,42</t>
+          <t>3,55; 7,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,16</t>
+          <t>2,23; 7,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,83</t>
+          <t>3,46; 5,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,35</t>
+          <t>3,01; 5,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,71</t>
+          <t>3,26; 5,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,91</t>
+          <t>4,01; 7,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,75</t>
+          <t>3,23; 6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,5</t>
+          <t>4,32; 8,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,87</t>
+          <t>2,85; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,53</t>
+          <t>4,76; 9,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,58</t>
+          <t>6,47; 10,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,87</t>
+          <t>8,82; 13,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,97</t>
+          <t>5,74; 9,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,57</t>
+          <t>8,47; 12,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,0</t>
+          <t>5,37; 8,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,34</t>
+          <t>7,15; 10,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,43</t>
+          <t>4,65; 7,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,35</t>
+          <t>7,06; 10,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,28</t>
+          <t>4,63; 9,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,37</t>
+          <t>5,85; 10,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,7</t>
+          <t>7,09; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,7</t>
+          <t>4,14; 14,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,78</t>
+          <t>9,98; 16,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,84</t>
+          <t>12,49; 18,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,62</t>
+          <t>10,14; 15,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,02</t>
+          <t>12,09; 17,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,75</t>
+          <t>8,13; 11,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,56</t>
+          <t>9,77; 13,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,76</t>
+          <t>9,17; 12,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,37</t>
+          <t>6,57; 14,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,06</t>
+          <t>10,51; 17,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,54</t>
+          <t>12,58; 19,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,36</t>
+          <t>9,53; 16,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,29</t>
+          <t>16,16; 22,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 19,24</t>
+          <t>12,28; 19,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,87</t>
+          <t>23,56; 31,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,53; 27,36</t>
+          <t>19,96; 28,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,85; 24,97</t>
+          <t>19,69; 24,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 17,43</t>
+          <t>12,42; 17,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,02</t>
+          <t>18,95; 24,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,58</t>
+          <t>15,34; 21,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,93</t>
+          <t>18,67; 23,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 20,67</t>
+          <t>12,57; 21,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 29,25</t>
+          <t>19,2; 29,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 20,88</t>
+          <t>12,67; 20,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,25</t>
+          <t>13,79; 20,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,19; 34,31</t>
+          <t>24,79; 34,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,89; 42,77</t>
+          <t>32,12; 42,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 37,02</t>
+          <t>27,67; 37,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 29,22</t>
+          <t>7,69; 29,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,7</t>
+          <t>20,2; 26,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,48</t>
+          <t>26,98; 34,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,79; 28,93</t>
+          <t>21,86; 28,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,85; 23,59</t>
+          <t>9,16; 23,64</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,18; 40,35</t>
+          <t>27,78; 40,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,0; 50,84</t>
+          <t>38,03; 51,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,85; 39,04</t>
+          <t>27,81; 38,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,72; 37,27</t>
+          <t>27,77; 37,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,14; 48,02</t>
+          <t>37,5; 48,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,69; 65,17</t>
+          <t>54,68; 65,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,15; 59,37</t>
+          <t>48,37; 59,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,15; 57,89</t>
+          <t>51,41; 58,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,46; 43,82</t>
+          <t>34,79; 43,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>49,45; 58,08</t>
+          <t>49,52; 57,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>41,71; 50,18</t>
+          <t>41,76; 50,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,94; 48,39</t>
+          <t>42,96; 48,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,29; 9,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,97; 12,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,28; 10,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,29</t>
+          <t>9,29; 13,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,37; 15,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,73; 21,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,5; 19,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,84</t>
+          <t>14,43; 19,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,73; 12,26</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,61; 16,43</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,75; 14,44</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,3</t>
+          <t>13,06; 16,21</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11147</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12477</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7627</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19960</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18729</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11921</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31107</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31206</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19549</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12241</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6021; 19319</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6630; 20195</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2993; 15082</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12722; 30744</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11603; 30233</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6610; 20189</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5028; 28403</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22165; 44829</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21829; 44979</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12457; 29799</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4751; 27646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18982</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22013</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30226</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43486</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30434</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29671</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23490</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62468</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52448</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50249</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53716</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12215; 29758</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13712; 33929</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13094; 31433</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19693; 48477</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30534; 57098</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20435; 42201</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19997; 41721</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11380; 36471</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47077; 79754</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39012; 69082</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37652; 66662</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37501; 73011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29856</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41203</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27942</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36375</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>58016</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79834</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>55804</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87872</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>121037</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78108</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92179</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20621; 41983</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29481; 55372</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19074; 40401</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25519; 50494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44645; 74305</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62587; 98843</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37939; 65358</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45951; 69098</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71392; 107948</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99453; 142953</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61924; 98545</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76128; 111015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35206</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49029</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>59170</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>83378</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66059</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>95043</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>81462</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>102899</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101264</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144072</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>140633</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>186277</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24035; 47772</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35937; 65366</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45788; 77698</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36712; 126877</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51478; 82906</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>76970; 116701</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65811; 100648</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>86117; 124277</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84102; 123514</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>120250; 168536</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>118815; 164237</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>105128; 229471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52710</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>67536</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57649</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>107179</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>62756</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>122988</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>116067</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>122917</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>115467</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>190524</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>173716</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>230096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40632; 67918</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54008; 84043</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45543; 76659</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>90717; 126271</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49613; 79019</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>105056; 142264</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>99162; 140016</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>107889; 136761</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>98232; 136285</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>165854; 215286</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>149577; 204966</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>207110; 255489</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>47989</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>73323</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>55550</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>61374</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>100792</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>130576</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>122360</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>114141</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148781</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>203900</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>177911</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>175515</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36789; 61502</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>59470; 91604</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42360; 69504</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>50577; 74369</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>85013; 117746</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>113702; 150264</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>104521; 142799</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>46794; 178800</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>128358; 170478</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>179062; 229533</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>155679; 202967</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>89363; 230530</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>71548</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>110940</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>85333</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>90973</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>142598</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>232559</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>215909</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>232036</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>214146</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>343498</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>301242</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>323009</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>58302; 84791</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>95027; 128661</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>71462; 99585</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>78393; 104475</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>125231; 161198</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>212710; 252893</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>193551; 237504</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>218682; 248400</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>189164; 238597</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>316323; 369682</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>274409; 329308</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>304039; 343370</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>267438</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>376521</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>313851</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>409505</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>493667</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>710163</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>627556</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>663528</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>761106</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1086684</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>941407</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1073033</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>238988; 302230</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>341647; 417602</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>281101; 349067</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>321017; 460924</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>451936; 535285</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>665859; 756351</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>584959; 680069</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>528351; 724086</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>713886; 816233</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1019635; 1146997</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>884783; 1002133</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>929269; 1153476</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>